--- a/checklist.xlsx
+++ b/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yyuan\Desktop\TT\HELLO_VUE3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900FAECB-3CEF-4BCD-BF1E-6F0CF467CAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A19D77E-5B82-4D89-B192-5875623A5357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9410" yWindow="10920" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1191,7 +1191,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1219,6 +1219,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor rgb="FFA6E3B6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFA6E3B6"/>
       </patternFill>
     </fill>
@@ -1268,18 +1274,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1312,6 +1315,15 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1544,7 +1556,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A75" sqref="A75"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1574,54 +1586,54 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="30" t="s">
         <v>272</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="26" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="18" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1630,113 +1642,113 @@
       <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="18" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="18" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="18" t="s">
         <v>44</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1745,591 +1757,591 @@
       <c r="D14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="6"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="6"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="26" t="s">
         <v>51</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="6"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="18" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="6"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="18" t="s">
         <v>59</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="6"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="18" t="s">
         <v>62</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="6"/>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="18" t="s">
         <v>66</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F21" s="6"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="18" t="s">
         <v>72</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="18" t="s">
         <v>75</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="18" t="s">
         <v>78</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="18" t="s">
         <v>81</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="18" t="s">
         <v>87</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="18" t="s">
         <v>94</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F36" s="6"/>
+      <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F46" s="6"/>
+      <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F47" s="6"/>
+      <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="18" t="s">
         <v>111</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E51" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F51" s="6"/>
+      <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B53" s="21" t="s">
+      <c r="B53" s="18" t="s">
         <v>121</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F53" s="6"/>
+      <c r="F53" s="4"/>
     </row>
     <row r="54" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B54" s="21" t="s">
+      <c r="B54" s="18" t="s">
         <v>125</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E54" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F54" s="6"/>
+      <c r="F54" s="4"/>
     </row>
     <row r="55" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
     </row>
     <row r="56" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
     </row>
     <row r="57" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
     </row>
     <row r="58" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B58" s="25" t="s">
+      <c r="B58" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13" t="s">
+      <c r="C58" s="10"/>
+      <c r="D58" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="E58" s="14" t="s">
+      <c r="E58" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="F58" s="14"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="13"/>
-      <c r="K58" s="13"/>
-      <c r="L58" s="13"/>
-      <c r="M58" s="13"/>
-      <c r="N58" s="13"/>
-      <c r="O58" s="13"/>
-      <c r="P58" s="13"/>
-      <c r="Q58" s="13"/>
-      <c r="R58" s="13"/>
-      <c r="S58" s="13"/>
-      <c r="T58" s="13"/>
-      <c r="U58" s="13"/>
-      <c r="V58" s="13"/>
-      <c r="W58" s="13"/>
-      <c r="X58" s="13"/>
-      <c r="Y58" s="13"/>
-      <c r="Z58" s="13"/>
-      <c r="AA58" s="13"/>
-      <c r="AB58" s="13"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="10"/>
+      <c r="Q58" s="10"/>
+      <c r="R58" s="10"/>
+      <c r="S58" s="10"/>
+      <c r="T58" s="10"/>
+      <c r="U58" s="10"/>
+      <c r="V58" s="10"/>
+      <c r="W58" s="10"/>
+      <c r="X58" s="10"/>
+      <c r="Y58" s="10"/>
+      <c r="Z58" s="10"/>
+      <c r="AA58" s="10"/>
+      <c r="AB58" s="10"/>
     </row>
     <row r="59" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="22" t="s">
+      <c r="A59" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C59" s="16" t="s">
+      <c r="C59" s="13" t="s">
         <v>268</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="E59" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F59" s="6"/>
+      <c r="F59" s="4"/>
     </row>
     <row r="60" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="24" t="s">
+      <c r="A60" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="B60" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="C60" s="13" t="s">
         <v>270</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="E60" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F60" s="6"/>
+      <c r="F60" s="4"/>
     </row>
     <row r="61" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="E61" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F61" s="6"/>
+      <c r="F61" s="4"/>
     </row>
     <row r="62" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
     </row>
     <row r="63" spans="1:28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="E63" s="6" t="s">
+      <c r="E63" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F63" s="6" t="s">
+      <c r="F63" s="4" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="64" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="23" t="s">
+      <c r="A64" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B64" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C64" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="D64" s="11" t="s">
+      <c r="D64" s="8" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="23" t="s">
+      <c r="A65" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="B65" s="26" t="s">
+      <c r="B65" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="C65" s="26" t="s">
+      <c r="C65" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="D65" s="27"/>
+      <c r="D65" s="24"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="23" t="s">
+      <c r="A66" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="B66" s="26" t="s">
+      <c r="B66" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="C66" s="26" t="s">
+      <c r="C66" s="23" t="s">
         <v>292</v>
       </c>
-      <c r="D66" s="28" t="s">
+      <c r="D66" s="25" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="23" t="s">
+      <c r="A67" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="B67" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="C67" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="D67" s="11" t="s">
+      <c r="D67" s="8" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="19" t="s">
+      <c r="A68" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="B68" s="20"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="17" t="s">
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="14" t="s">
         <v>158</v>
       </c>
       <c r="E68" s="2" t="s">
@@ -2337,40 +2349,40 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="23" t="s">
+      <c r="A69" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="B69" s="26" t="s">
+      <c r="B69" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="C69" s="26" t="s">
+      <c r="C69" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="D69" s="27" t="s">
+      <c r="D69" s="24" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="23" t="s">
+      <c r="A70" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="B70" s="26" t="s">
+      <c r="B70" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="C70" s="26" t="s">
+      <c r="C70" s="23" t="s">
         <v>284</v>
       </c>
-      <c r="D70" s="27" t="s">
+      <c r="D70" s="24" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="19" t="s">
+      <c r="A71" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="B71" s="20"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="17" t="s">
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="14" t="s">
         <v>167</v>
       </c>
       <c r="E71" s="2" t="s">
@@ -2378,65 +2390,65 @@
       </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="23" t="s">
+      <c r="A72" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="B72" s="26" t="s">
+      <c r="B72" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="C72" s="26" t="s">
+      <c r="C72" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="D72" s="27" t="s">
+      <c r="D72" s="24" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="23" t="s">
+      <c r="A73" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="B73" s="26" t="s">
+      <c r="B73" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="C73" s="26" t="s">
+      <c r="C73" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="D73" s="27" t="s">
+      <c r="D73" s="24" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="19" t="s">
+      <c r="A74" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="B74" s="18"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
       <c r="E74" s="2" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="23" t="s">
+      <c r="A75" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="B75" s="26" t="s">
+      <c r="B75" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="C75" s="26" t="s">
+      <c r="C75" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="D75" s="27" t="s">
+      <c r="D75" s="24" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="19" t="s">
+      <c r="A76" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="B76" s="20"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="17" t="s">
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="14" t="s">
         <v>181</v>
       </c>
       <c r="E76" s="2" t="s">
@@ -2444,69 +2456,69 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="23" t="s">
+      <c r="A77" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="B77" s="26" t="s">
+      <c r="B77" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="C77" s="26" t="s">
+      <c r="C77" s="23" t="s">
         <v>281</v>
       </c>
-      <c r="D77" s="27" t="s">
+      <c r="D77" s="24" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="23" t="s">
+      <c r="A78" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="B78" s="26" t="s">
+      <c r="B78" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="C78" s="26" t="s">
+      <c r="C78" s="23" t="s">
         <v>290</v>
       </c>
-      <c r="D78" s="27" t="s">
+      <c r="D78" s="24" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="23" t="s">
+      <c r="A79" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="B79" s="26" t="s">
+      <c r="B79" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="C79" s="26" t="s">
+      <c r="C79" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="D79" s="27" t="s">
+      <c r="D79" s="24" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="23" t="s">
+      <c r="A80" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="B80" s="26" t="s">
+      <c r="B80" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="C80" s="30" t="s">
+      <c r="C80" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="D80" s="27" t="s">
+      <c r="D80" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="E80" s="29"/>
+      <c r="E80" s="26"/>
     </row>
     <row r="81" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="19" t="s">
+      <c r="A81" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="B81" s="20"/>
-      <c r="C81" s="20"/>
-      <c r="D81" s="17" t="s">
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="14" t="s">
         <v>197</v>
       </c>
       <c r="E81" s="2" t="s">
@@ -2517,12 +2529,12 @@
       </c>
     </row>
     <row r="82" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="19" t="s">
+      <c r="A82" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="B82" s="20"/>
-      <c r="C82" s="20"/>
-      <c r="D82" s="17" t="s">
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="14" t="s">
         <v>201</v>
       </c>
       <c r="E82" s="2" t="s">
@@ -2530,26 +2542,26 @@
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="23" t="s">
+      <c r="A83" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="B83" s="16" t="s">
+      <c r="B83" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="C83" s="16" t="s">
+      <c r="C83" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="D83" s="11" t="s">
+      <c r="D83" s="8" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="19" t="s">
+      <c r="A84" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="B84" s="20"/>
-      <c r="C84" s="20"/>
-      <c r="D84" s="17" t="s">
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="14" t="s">
         <v>207</v>
       </c>
       <c r="E84" s="2" t="s">
@@ -2557,69 +2569,69 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="23" t="s">
+      <c r="A85" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="B85" s="26" t="s">
+      <c r="B85" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="C85" s="26" t="s">
+      <c r="C85" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="D85" s="28"/>
+      <c r="D85" s="25"/>
     </row>
     <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="23" t="s">
+      <c r="A86" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="B86" s="26" t="s">
+      <c r="B86" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="C86" s="26" t="s">
+      <c r="C86" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="D86" s="27" t="s">
+      <c r="D86" s="24" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="23" t="s">
+      <c r="A87" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="B87" s="26" t="s">
+      <c r="B87" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="C87" s="26" t="s">
+      <c r="C87" s="23" t="s">
         <v>275</v>
       </c>
-      <c r="D87" s="27" t="s">
+      <c r="D87" s="24" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="23" t="s">
+      <c r="A88" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="B88" s="26" t="s">
+      <c r="B88" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="C88" s="26" t="s">
+      <c r="C88" s="23" t="s">
         <v>288</v>
       </c>
-      <c r="D88" s="27" t="s">
+      <c r="D88" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="E88" s="6" t="s">
+      <c r="E88" s="4" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="19" t="s">
+      <c r="A89" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="B89" s="20"/>
-      <c r="C89" s="20"/>
-      <c r="D89" s="17" t="s">
+      <c r="B89" s="17"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="14" t="s">
         <v>222</v>
       </c>
       <c r="E89" s="2" t="s">
@@ -2627,40 +2639,40 @@
       </c>
     </row>
     <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="23" t="s">
+      <c r="A90" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="B90" s="26" t="s">
+      <c r="B90" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="C90" s="26" t="s">
+      <c r="C90" s="23" t="s">
         <v>289</v>
       </c>
-      <c r="D90" s="27" t="s">
+      <c r="D90" s="24" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="23" t="s">
+      <c r="A91" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="B91" s="26" t="s">
+      <c r="B91" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="C91" s="26" t="s">
+      <c r="C91" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="D91" s="27" t="s">
+      <c r="D91" s="24" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="19" t="s">
+      <c r="A92" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="B92" s="20"/>
-      <c r="C92" s="20"/>
-      <c r="D92" s="17" t="s">
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="14" t="s">
         <v>231</v>
       </c>
       <c r="E92" s="2" t="s">
@@ -2668,12 +2680,12 @@
       </c>
     </row>
     <row r="93" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="19" t="s">
+      <c r="A93" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="B93" s="20"/>
-      <c r="C93" s="20"/>
-      <c r="D93" s="17" t="s">
+      <c r="B93" s="17"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="14" t="s">
         <v>234</v>
       </c>
       <c r="E93" s="2" t="s">
@@ -2681,26 +2693,26 @@
       </c>
     </row>
     <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="23" t="s">
+      <c r="A94" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="B94" s="26" t="s">
+      <c r="B94" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="C94" s="26" t="s">
+      <c r="C94" s="23" t="s">
         <v>282</v>
       </c>
-      <c r="D94" s="27" t="s">
+      <c r="D94" s="24" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="19" t="s">
+      <c r="A95" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="B95" s="20"/>
-      <c r="C95" s="20"/>
-      <c r="D95" s="17" t="s">
+      <c r="B95" s="17"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="14" t="s">
         <v>240</v>
       </c>
       <c r="E95" s="2" t="s">
@@ -2708,12 +2720,12 @@
       </c>
     </row>
     <row r="96" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="19" t="s">
+      <c r="A96" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="B96" s="20"/>
-      <c r="C96" s="20"/>
-      <c r="D96" s="17" t="s">
+      <c r="B96" s="17"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="14" t="s">
         <v>242</v>
       </c>
       <c r="E96" s="2" t="s">
@@ -2721,40 +2733,40 @@
       </c>
     </row>
     <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="23" t="s">
+      <c r="A97" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="B97" s="26" t="s">
+      <c r="B97" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="C97" s="26" t="s">
+      <c r="C97" s="23" t="s">
         <v>276</v>
       </c>
-      <c r="D97" s="27" t="s">
+      <c r="D97" s="24" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="23" t="s">
+      <c r="A98" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="B98" s="26" t="s">
+      <c r="B98" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="C98" s="26" t="s">
+      <c r="C98" s="23" t="s">
         <v>280</v>
       </c>
-      <c r="D98" s="27" t="s">
+      <c r="D98" s="24" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="19" t="s">
+      <c r="A99" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="B99" s="20"/>
-      <c r="C99" s="20"/>
-      <c r="D99" s="17" t="s">
+      <c r="B99" s="17"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="14" t="s">
         <v>251</v>
       </c>
       <c r="E99" s="2" t="s">
@@ -2762,12 +2774,12 @@
       </c>
     </row>
     <row r="100" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="19" t="s">
+      <c r="A100" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="B100" s="20"/>
-      <c r="C100" s="20"/>
-      <c r="D100" s="17" t="s">
+      <c r="B100" s="17"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="14" t="s">
         <v>254</v>
       </c>
       <c r="E100" s="2" t="s">
@@ -2775,26 +2787,26 @@
       </c>
     </row>
     <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="23" t="s">
+      <c r="A101" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="B101" s="26" t="s">
+      <c r="B101" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="C101" s="26" t="s">
+      <c r="C101" s="23" t="s">
         <v>279</v>
       </c>
-      <c r="D101" s="27" t="s">
+      <c r="D101" s="24" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="19" t="s">
+      <c r="A102" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="B102" s="20"/>
-      <c r="C102" s="20"/>
-      <c r="D102" s="17" t="s">
+      <c r="B102" s="17"/>
+      <c r="C102" s="17"/>
+      <c r="D102" s="14" t="s">
         <v>260</v>
       </c>
       <c r="E102" s="2" t="s">
@@ -2802,12 +2814,12 @@
       </c>
     </row>
     <row r="103" spans="1:5" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="19" t="s">
+      <c r="A103" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="B103" s="20"/>
-      <c r="C103" s="20"/>
-      <c r="D103" s="17" t="s">
+      <c r="B103" s="17"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="14" t="s">
         <v>263</v>
       </c>
       <c r="E103" s="2" t="s">
@@ -2815,16 +2827,16 @@
       </c>
     </row>
     <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="23" t="s">
+      <c r="A104" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="B104" s="26" t="s">
+      <c r="B104" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="C104" s="26" t="s">
+      <c r="C104" s="23" t="s">
         <v>278</v>
       </c>
-      <c r="D104" s="28"/>
+      <c r="D104" s="25"/>
     </row>
     <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
